--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_gelu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>14.31699359657089</v>
       </c>
-      <c r="G2" t="n">
-        <v>173.0616607666016</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>37.27681350708008</v>
+        <v>137.5429840087891</v>
       </c>
       <c r="I2" t="n">
-        <v>897.001220703125</v>
+        <v>28.5504322052002</v>
       </c>
       <c r="J2" t="n">
-        <v>60.60608291625977</v>
+        <v>894.3163452148438</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61.75479125976562</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>15.27891067420843</v>
       </c>
-      <c r="G3" t="n">
-        <v>238.2271881103516</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>41.31346893310547</v>
+        <v>146.6415557861328</v>
       </c>
       <c r="I3" t="n">
-        <v>900.1923217773438</v>
+        <v>34.36522674560547</v>
       </c>
       <c r="J3" t="n">
-        <v>60.75860214233398</v>
+        <v>898.09228515625</v>
+      </c>
+      <c r="K3" t="n">
+        <v>61.01033401489258</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>15.85974020072816</v>
       </c>
-      <c r="G4" t="n">
-        <v>284.5246276855469</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>67.45566558837891</v>
+        <v>159.0849151611328</v>
       </c>
       <c r="I4" t="n">
-        <v>898.6524047851562</v>
+        <v>46.83195495605469</v>
       </c>
       <c r="J4" t="n">
-        <v>59.07266616821289</v>
+        <v>896.5662231445312</v>
+      </c>
+      <c r="K4" t="n">
+        <v>63.59195327758789</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>16.6254486072678</v>
       </c>
-      <c r="G5" t="n">
-        <v>332.5459899902344</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>99.91233825683594</v>
+        <v>189.7792663574219</v>
       </c>
       <c r="I5" t="n">
-        <v>898.0233154296875</v>
+        <v>79.14157104492188</v>
       </c>
       <c r="J5" t="n">
-        <v>65.26660919189453</v>
+        <v>894.5596923828125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67.13202667236328</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>16.72168606967666</v>
       </c>
-      <c r="G6" t="n">
-        <v>392.2914733886719</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>136.2452697753906</v>
+        <v>248.0402069091797</v>
       </c>
       <c r="I6" t="n">
-        <v>891.0222778320312</v>
+        <v>123.4945831298828</v>
       </c>
       <c r="J6" t="n">
-        <v>62.67014694213867</v>
+        <v>890.102783203125</v>
+      </c>
+      <c r="K6" t="n">
+        <v>69.2738037109375</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>17.58023045110392</v>
       </c>
-      <c r="G7" t="n">
-        <v>130.5494995117188</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>35.1874885559082</v>
+        <v>126.8301849365234</v>
       </c>
       <c r="I7" t="n">
-        <v>932.5028076171875</v>
+        <v>28.06950378417969</v>
       </c>
       <c r="J7" t="n">
-        <v>75.85802459716797</v>
+        <v>933.9768676757812</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66.35128784179688</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>18.57818076528054</v>
       </c>
-      <c r="G8" t="n">
-        <v>135.1581726074219</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>34.41419219970703</v>
+        <v>132.7181701660156</v>
       </c>
       <c r="I8" t="n">
-        <v>926.4241943359375</v>
+        <v>27.41315078735352</v>
       </c>
       <c r="J8" t="n">
-        <v>69.76842498779297</v>
+        <v>921.9426879882812</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65.82774353027344</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>19.60838259075554</v>
       </c>
-      <c r="G9" t="n">
-        <v>166.0114288330078</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>39.35250854492188</v>
+        <v>142.1093292236328</v>
       </c>
       <c r="I9" t="n">
-        <v>924.2783203125</v>
+        <v>26.67034912109375</v>
       </c>
       <c r="J9" t="n">
-        <v>69.3349609375</v>
+        <v>916.5711669921875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>64.21633911132812</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>20.10500298210745</v>
       </c>
-      <c r="G10" t="n">
-        <v>207.9382476806641</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>44.74131393432617</v>
+        <v>146.3010101318359</v>
       </c>
       <c r="I10" t="n">
-        <v>921.4595947265625</v>
+        <v>28.57904243469238</v>
       </c>
       <c r="J10" t="n">
-        <v>69.58632659912109</v>
+        <v>912.1015625</v>
+      </c>
+      <c r="K10" t="n">
+        <v>63.87351989746094</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>20.82282672295324</v>
       </c>
-      <c r="G11" t="n">
-        <v>267.1571044921875</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>65.26337432861328</v>
+        <v>158.4499664306641</v>
       </c>
       <c r="I11" t="n">
-        <v>914.0523071289062</v>
+        <v>41.64152908325195</v>
       </c>
       <c r="J11" t="n">
-        <v>71.80040740966797</v>
+        <v>910.7314453125</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66.65408325195312</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>21.05931589769223</v>
       </c>
-      <c r="G12" t="n">
-        <v>344.9560546875</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>123.2978897094727</v>
+        <v>210.1396179199219</v>
       </c>
       <c r="I12" t="n">
-        <v>912.5822143554688</v>
+        <v>86.64405059814453</v>
       </c>
       <c r="J12" t="n">
-        <v>74.30045318603516</v>
+        <v>905.7783203125</v>
+      </c>
+      <c r="K12" t="n">
+        <v>72.34131622314453</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>21.38449445236935</v>
       </c>
-      <c r="G13" t="n">
-        <v>477.8709411621094</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>167.9171752929688</v>
+        <v>344.7891540527344</v>
       </c>
       <c r="I13" t="n">
-        <v>912.7348022460938</v>
+        <v>169.4346771240234</v>
       </c>
       <c r="J13" t="n">
-        <v>79.66951751708984</v>
+        <v>901.8903198242188</v>
+      </c>
+      <c r="K13" t="n">
+        <v>72.35018157958984</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>19.79697020692051</v>
       </c>
-      <c r="G14" t="n">
-        <v>120.8122024536133</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>41.47831344604492</v>
+        <v>110.1395568847656</v>
       </c>
       <c r="I14" t="n">
-        <v>733.2905883789062</v>
+        <v>28.36806297302246</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2064666748047</v>
+        <v>724.0924682617188</v>
+      </c>
+      <c r="K14" t="n">
+        <v>98.70077514648438</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>21.48203443327129</v>
       </c>
-      <c r="G15" t="n">
-        <v>125.887321472168</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>37.46955490112305</v>
+        <v>117.412223815918</v>
       </c>
       <c r="I15" t="n">
-        <v>972.0941772460938</v>
+        <v>26.55451011657715</v>
       </c>
       <c r="J15" t="n">
-        <v>76.17463684082031</v>
+        <v>970.9754028320312</v>
+      </c>
+      <c r="K15" t="n">
+        <v>71.54963684082031</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>22.47631622738632</v>
       </c>
-      <c r="G16" t="n">
-        <v>137.5537719726562</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>37.25260162353516</v>
+        <v>133.6633148193359</v>
       </c>
       <c r="I16" t="n">
-        <v>969.0023193359375</v>
+        <v>27.01044654846191</v>
       </c>
       <c r="J16" t="n">
-        <v>81.57505798339844</v>
+        <v>962.6886596679688</v>
+      </c>
+      <c r="K16" t="n">
+        <v>73.16721343994141</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>24.35763244318183</v>
       </c>
-      <c r="G17" t="n">
-        <v>141.4120330810547</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>36.48611450195312</v>
+        <v>137.7559051513672</v>
       </c>
       <c r="I17" t="n">
-        <v>988.9280395507812</v>
+        <v>26.44514846801758</v>
       </c>
       <c r="J17" t="n">
-        <v>80.82427978515625</v>
+        <v>972.1585693359375</v>
+      </c>
+      <c r="K17" t="n">
+        <v>70.51354217529297</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>25.62064236797445</v>
       </c>
-      <c r="G18" t="n">
-        <v>162.8519592285156</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>40.98412704467773</v>
+        <v>147.9731750488281</v>
       </c>
       <c r="I18" t="n">
-        <v>956.708251953125</v>
+        <v>26.75763320922852</v>
       </c>
       <c r="J18" t="n">
-        <v>84.14956665039062</v>
+        <v>935.419921875</v>
+      </c>
+      <c r="K18" t="n">
+        <v>74.29557037353516</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>25.92967709475499</v>
       </c>
-      <c r="G19" t="n">
-        <v>211.5293884277344</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>53.4107551574707</v>
+        <v>156.1349945068359</v>
       </c>
       <c r="I19" t="n">
-        <v>932.9229125976562</v>
+        <v>28.30768013000488</v>
       </c>
       <c r="J19" t="n">
-        <v>87.56340789794922</v>
+        <v>921.5785522460938</v>
+      </c>
+      <c r="K19" t="n">
+        <v>81.84365081787109</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>26.19588155013293</v>
       </c>
-      <c r="G20" t="n">
-        <v>285.2379455566406</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>105.8935623168945</v>
+        <v>180.0106811523438</v>
       </c>
       <c r="I20" t="n">
-        <v>920.5066528320312</v>
+        <v>45.98453521728516</v>
       </c>
       <c r="J20" t="n">
-        <v>86.87004089355469</v>
+        <v>913.727783203125</v>
+      </c>
+      <c r="K20" t="n">
+        <v>86.67146301269531</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>25.87267490890685</v>
       </c>
-      <c r="G21" t="n">
-        <v>455.7609252929688</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>180.3109130859375</v>
+        <v>317.1639099121094</v>
       </c>
       <c r="I21" t="n">
-        <v>922.078125</v>
+        <v>139.9543914794922</v>
       </c>
       <c r="J21" t="n">
-        <v>88.4915771484375</v>
+        <v>907.8710327148438</v>
+      </c>
+      <c r="K21" t="n">
+        <v>87.62534332275391</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>24.64055238634836</v>
       </c>
-      <c r="G22" t="n">
-        <v>692.1475219726562</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>126.6295700073242</v>
+        <v>577.3599243164062</v>
       </c>
       <c r="I22" t="n">
-        <v>911.7654418945312</v>
+        <v>200.2473754882812</v>
       </c>
       <c r="J22" t="n">
-        <v>90.00251770019531</v>
+        <v>893.6334228515625</v>
+      </c>
+      <c r="K22" t="n">
+        <v>101.1397171020508</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>24.69862396067251</v>
       </c>
-      <c r="G23" t="n">
-        <v>116.7091293334961</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>41.79819107055664</v>
+        <v>107.5953598022461</v>
       </c>
       <c r="I23" t="n">
-        <v>331.8795471191406</v>
+        <v>28.80802726745605</v>
       </c>
       <c r="J23" t="n">
-        <v>129.2467956542969</v>
+        <v>346.1248779296875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>117.5773391723633</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>27.11629087610016</v>
       </c>
-      <c r="G24" t="n">
-        <v>122.9027099609375</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>40.58752822875977</v>
+        <v>111.5146484375</v>
       </c>
       <c r="I24" t="n">
-        <v>562.7938842773438</v>
+        <v>29.77785110473633</v>
       </c>
       <c r="J24" t="n">
-        <v>150.5037231445312</v>
+        <v>553.6724243164062</v>
+      </c>
+      <c r="K24" t="n">
+        <v>146.0846405029297</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>28.97995691733995</v>
       </c>
-      <c r="G25" t="n">
-        <v>128.7112426757812</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>41.08809661865234</v>
+        <v>122.5353088378906</v>
       </c>
       <c r="I25" t="n">
-        <v>902.921875</v>
+        <v>28.1684455871582</v>
       </c>
       <c r="J25" t="n">
-        <v>96.14948272705078</v>
+        <v>892.5436401367188</v>
+      </c>
+      <c r="K25" t="n">
+        <v>93.22998809814453</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>30.34265377319738</v>
       </c>
-      <c r="G26" t="n">
-        <v>135.0215454101562</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>37.62327194213867</v>
+        <v>133.3680114746094</v>
       </c>
       <c r="I26" t="n">
-        <v>991.058349609375</v>
+        <v>26.93976783752441</v>
       </c>
       <c r="J26" t="n">
-        <v>82.43158721923828</v>
+        <v>985.463134765625</v>
+      </c>
+      <c r="K26" t="n">
+        <v>80.08538818359375</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>31.86528713449996</v>
       </c>
-      <c r="G27" t="n">
-        <v>153.47216796875</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>39.79107284545898</v>
+        <v>145.7396392822266</v>
       </c>
       <c r="I27" t="n">
-        <v>968.2340698242188</v>
+        <v>27.17731285095215</v>
       </c>
       <c r="J27" t="n">
-        <v>75.3466796875</v>
+        <v>962.6129150390625</v>
+      </c>
+      <c r="K27" t="n">
+        <v>73.38426971435547</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>31.70139237157215</v>
       </c>
-      <c r="G28" t="n">
-        <v>192.2736663818359</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>43.59909439086914</v>
+        <v>163.0193481445312</v>
       </c>
       <c r="I28" t="n">
-        <v>928.7402954101562</v>
+        <v>27.79917526245117</v>
       </c>
       <c r="J28" t="n">
-        <v>84.2679443359375</v>
+        <v>929.5697631835938</v>
+      </c>
+      <c r="K28" t="n">
+        <v>91.13951873779297</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>31.7420363140709</v>
       </c>
-      <c r="G29" t="n">
-        <v>253.8106842041016</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>76.17169189453125</v>
+        <v>189.5425567626953</v>
       </c>
       <c r="I29" t="n">
-        <v>904.5438842773438</v>
+        <v>38.20209121704102</v>
       </c>
       <c r="J29" t="n">
-        <v>90.38617706298828</v>
+        <v>908.5018920898438</v>
+      </c>
+      <c r="K29" t="n">
+        <v>104.9271545410156</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>30.76237588603813</v>
       </c>
-      <c r="G30" t="n">
-        <v>448.5782775878906</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>174.8661804199219</v>
+        <v>329.3472900390625</v>
       </c>
       <c r="I30" t="n">
-        <v>901.0712280273438</v>
+        <v>128.0698394775391</v>
       </c>
       <c r="J30" t="n">
-        <v>99.81245422363281</v>
+        <v>900.8179321289062</v>
+      </c>
+      <c r="K30" t="n">
+        <v>111.3096160888672</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>29.73442789455431</v>
       </c>
-      <c r="G31" t="n">
-        <v>705.731689453125</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>109.5822296142578</v>
+        <v>585.6785888671875</v>
       </c>
       <c r="I31" t="n">
-        <v>891.3350830078125</v>
+        <v>183.8243408203125</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3981018066406</v>
+        <v>874.022216796875</v>
+      </c>
+      <c r="K31" t="n">
+        <v>143.9454650878906</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>30.37782838567884</v>
       </c>
-      <c r="G32" t="n">
-        <v>115.685920715332</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>41.70283126831055</v>
+        <v>105.5268402099609</v>
       </c>
       <c r="I32" t="n">
-        <v>149.7731323242188</v>
+        <v>29.61458206176758</v>
       </c>
       <c r="J32" t="n">
-        <v>80.45326232910156</v>
+        <v>167.9669189453125</v>
+      </c>
+      <c r="K32" t="n">
+        <v>74.79670715332031</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>33.11659379389907</v>
       </c>
-      <c r="G33" t="n">
-        <v>120.1846618652344</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>40.10622787475586</v>
+        <v>108.4224853515625</v>
       </c>
       <c r="I33" t="n">
-        <v>238.4771881103516</v>
+        <v>29.24589157104492</v>
       </c>
       <c r="J33" t="n">
-        <v>118.7060852050781</v>
+        <v>251.2402801513672</v>
+      </c>
+      <c r="K33" t="n">
+        <v>98.5533447265625</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>35.40504769440309</v>
       </c>
-      <c r="G34" t="n">
-        <v>125.2853240966797</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>40.55286407470703</v>
+        <v>114.2875366210938</v>
       </c>
       <c r="I34" t="n">
-        <v>403.73828125</v>
+        <v>28.40423774719238</v>
       </c>
       <c r="J34" t="n">
-        <v>148.6685485839844</v>
+        <v>396.2199096679688</v>
+      </c>
+      <c r="K34" t="n">
+        <v>140.5288848876953</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>37.57764389518124</v>
       </c>
-      <c r="G35" t="n">
-        <v>135.9542236328125</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>38.50506210327148</v>
+        <v>127.2501678466797</v>
       </c>
       <c r="I35" t="n">
-        <v>526.666259765625</v>
+        <v>28.18117713928223</v>
       </c>
       <c r="J35" t="n">
-        <v>147.9042053222656</v>
+        <v>508.6352233886719</v>
+      </c>
+      <c r="K35" t="n">
+        <v>140.8697204589844</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>38.09115608907656</v>
       </c>
-      <c r="G36" t="n">
-        <v>157.4948883056641</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>41.82989883422852</v>
+        <v>145.7926483154297</v>
       </c>
       <c r="I36" t="n">
-        <v>725.4049072265625</v>
+        <v>27.80523109436035</v>
       </c>
       <c r="J36" t="n">
-        <v>137.0705108642578</v>
+        <v>736.4120483398438</v>
+      </c>
+      <c r="K36" t="n">
+        <v>137.1432342529297</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>38.33579750611559</v>
       </c>
-      <c r="G37" t="n">
-        <v>187.8653869628906</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>43.80671310424805</v>
+        <v>163.9685668945312</v>
       </c>
       <c r="I37" t="n">
-        <v>735.842041015625</v>
+        <v>29.36536598205566</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8278656005859</v>
+        <v>759.9261474609375</v>
+      </c>
+      <c r="K37" t="n">
+        <v>132.0574645996094</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>37.89528654115976</v>
       </c>
-      <c r="G38" t="n">
-        <v>263.2081604003906</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>58.43842315673828</v>
+        <v>202.2407989501953</v>
       </c>
       <c r="I38" t="n">
-        <v>770.59130859375</v>
+        <v>37.12222290039062</v>
       </c>
       <c r="J38" t="n">
-        <v>127.2670822143555</v>
+        <v>813.059814453125</v>
+      </c>
+      <c r="K38" t="n">
+        <v>111.743293762207</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>37.04916938976096</v>
       </c>
-      <c r="G39" t="n">
-        <v>440.8497924804688</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>142.6884460449219</v>
+        <v>323.8775329589844</v>
       </c>
       <c r="I39" t="n">
-        <v>768.4412231445312</v>
+        <v>104.826301574707</v>
       </c>
       <c r="J39" t="n">
-        <v>148.6661987304688</v>
+        <v>827.533203125</v>
+      </c>
+      <c r="K39" t="n">
+        <v>139.8016052246094</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>35.00856026880581</v>
       </c>
-      <c r="G40" t="n">
-        <v>687.8790893554688</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>87.87819671630859</v>
+        <v>586.6719970703125</v>
       </c>
       <c r="I40" t="n">
-        <v>757.845458984375</v>
+        <v>148.5989074707031</v>
       </c>
       <c r="J40" t="n">
-        <v>228.2690582275391</v>
+        <v>804.8690185546875</v>
+      </c>
+      <c r="K40" t="n">
+        <v>220.3861389160156</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>37.58863922492247</v>
       </c>
-      <c r="G41" t="n">
-        <v>118.1363296508789</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>40.31206893920898</v>
+        <v>104.9570693969727</v>
       </c>
       <c r="I41" t="n">
-        <v>109.8167190551758</v>
+        <v>31.72517013549805</v>
       </c>
       <c r="J41" t="n">
-        <v>55.27964401245117</v>
+        <v>122.348518371582</v>
+      </c>
+      <c r="K41" t="n">
+        <v>53.42819213867188</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>40.4685427958547</v>
       </c>
-      <c r="G42" t="n">
-        <v>121.7427444458008</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>43.02386856079102</v>
+        <v>106.8600616455078</v>
       </c>
       <c r="I42" t="n">
-        <v>136.7678833007812</v>
+        <v>30.23565673828125</v>
       </c>
       <c r="J42" t="n">
-        <v>70.00514984130859</v>
+        <v>150.9960632324219</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59.77797317504883</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>42.41365999634309</v>
       </c>
-      <c r="G43" t="n">
-        <v>127.9545440673828</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>41.72813415527344</v>
+        <v>109.1942596435547</v>
       </c>
       <c r="I43" t="n">
-        <v>164.4857025146484</v>
+        <v>29.44835090637207</v>
       </c>
       <c r="J43" t="n">
-        <v>78.23148345947266</v>
+        <v>175.8179321289062</v>
+      </c>
+      <c r="K43" t="n">
+        <v>66.71945953369141</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>44.05056700894834</v>
       </c>
-      <c r="G44" t="n">
-        <v>135.4796600341797</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>40.741455078125</v>
+        <v>124.9117813110352</v>
       </c>
       <c r="I44" t="n">
-        <v>250.0708618164062</v>
+        <v>29.20474624633789</v>
       </c>
       <c r="J44" t="n">
-        <v>88.12621307373047</v>
+        <v>254.7630004882812</v>
+      </c>
+      <c r="K44" t="n">
+        <v>90.71967315673828</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>45.28527361475503</v>
       </c>
-      <c r="G45" t="n">
-        <v>149.2998809814453</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>40.65979766845703</v>
+        <v>137.4642486572266</v>
       </c>
       <c r="I45" t="n">
-        <v>301.9307861328125</v>
+        <v>29.07447814941406</v>
       </c>
       <c r="J45" t="n">
-        <v>98.45710754394531</v>
+        <v>297.3296813964844</v>
+      </c>
+      <c r="K45" t="n">
+        <v>102.075065612793</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>45.11415223222625</v>
       </c>
-      <c r="G46" t="n">
-        <v>174.4353637695312</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>41.54585647583008</v>
+        <v>158.6920013427734</v>
       </c>
       <c r="I46" t="n">
-        <v>377.5160827636719</v>
+        <v>28.42128372192383</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8114013671875</v>
+        <v>388.0767822265625</v>
+      </c>
+      <c r="K46" t="n">
+        <v>115.3744354248047</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>44.97584185956661</v>
       </c>
-      <c r="G47" t="n">
-        <v>254.3565063476562</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>57.00973892211914</v>
+        <v>196.5345611572266</v>
       </c>
       <c r="I47" t="n">
-        <v>445.7908325195312</v>
+        <v>35.35995483398438</v>
       </c>
       <c r="J47" t="n">
-        <v>194.685791015625</v>
+        <v>502.0817565917969</v>
+      </c>
+      <c r="K47" t="n">
+        <v>161.3003540039062</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>42.0865253634753</v>
       </c>
-      <c r="G48" t="n">
-        <v>442.1451416015625</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>122.3151702880859</v>
+        <v>325.6382141113281</v>
       </c>
       <c r="I48" t="n">
-        <v>529.20751953125</v>
+        <v>88.61933898925781</v>
       </c>
       <c r="J48" t="n">
-        <v>229.1229095458984</v>
+        <v>633.1996459960938</v>
+      </c>
+      <c r="K48" t="n">
+        <v>194.1738128662109</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>40.81585186348995</v>
       </c>
-      <c r="G49" t="n">
-        <v>647.8545532226562</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>86.10267639160156</v>
+        <v>540.7281494140625</v>
       </c>
       <c r="I49" t="n">
-        <v>576.99072265625</v>
+        <v>135.9797821044922</v>
       </c>
       <c r="J49" t="n">
-        <v>261.1493530273438</v>
+        <v>692.381591796875</v>
+      </c>
+      <c r="K49" t="n">
+        <v>222.8573455810547</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>45.37200448015243</v>
       </c>
-      <c r="G50" t="n">
-        <v>119.9030456542969</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>42.43766784667969</v>
+        <v>106.6701126098633</v>
       </c>
       <c r="I50" t="n">
-        <v>78.71916961669922</v>
+        <v>31.1513500213623</v>
       </c>
       <c r="J50" t="n">
-        <v>54.11701202392578</v>
+        <v>82.04201507568359</v>
+      </c>
+      <c r="K50" t="n">
+        <v>54.03275680541992</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>48.78786662406539</v>
       </c>
-      <c r="G51" t="n">
-        <v>126.5045928955078</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>44.05947875976562</v>
+        <v>105.5780487060547</v>
       </c>
       <c r="I51" t="n">
-        <v>91.24624633789062</v>
+        <v>30.35260009765625</v>
       </c>
       <c r="J51" t="n">
-        <v>55.17594909667969</v>
+        <v>96.8197021484375</v>
+      </c>
+      <c r="K51" t="n">
+        <v>53.05987167358398</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>50.73675625671652</v>
       </c>
-      <c r="G52" t="n">
-        <v>130.0041656494141</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>43.76498794555664</v>
+        <v>109.2822418212891</v>
       </c>
       <c r="I52" t="n">
-        <v>92.9295654296875</v>
+        <v>30.3582935333252</v>
       </c>
       <c r="J52" t="n">
-        <v>58.78951263427734</v>
+        <v>106.7623062133789</v>
+      </c>
+      <c r="K52" t="n">
+        <v>57.43117141723633</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>51.96609868449762</v>
       </c>
-      <c r="G53" t="n">
-        <v>141.5028839111328</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>44.18252563476562</v>
+        <v>119.9024124145508</v>
       </c>
       <c r="I53" t="n">
-        <v>121.751708984375</v>
+        <v>29.55035591125488</v>
       </c>
       <c r="J53" t="n">
-        <v>62.71098327636719</v>
+        <v>128.4068908691406</v>
+      </c>
+      <c r="K53" t="n">
+        <v>65.30496978759766</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>52.45736467440484</v>
       </c>
-      <c r="G54" t="n">
-        <v>153.2450866699219</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>41.56662750244141</v>
+        <v>136.8148193359375</v>
       </c>
       <c r="I54" t="n">
-        <v>149.4377288818359</v>
+        <v>28.56464767456055</v>
       </c>
       <c r="J54" t="n">
-        <v>59.92620468139648</v>
+        <v>148.330078125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67.09089660644531</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>51.85220057025387</v>
       </c>
-      <c r="G55" t="n">
-        <v>176.9240112304688</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>42.09271621704102</v>
+        <v>156.7666320800781</v>
       </c>
       <c r="I55" t="n">
-        <v>184.4480133056641</v>
+        <v>28.41353988647461</v>
       </c>
       <c r="J55" t="n">
-        <v>65.56242370605469</v>
+        <v>194.9142608642578</v>
+      </c>
+      <c r="K55" t="n">
+        <v>71.66378021240234</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>51.37276147532685</v>
       </c>
-      <c r="G56" t="n">
-        <v>238.2934112548828</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>51.90340805053711</v>
+        <v>187.3132934570312</v>
       </c>
       <c r="I56" t="n">
-        <v>201.6895599365234</v>
+        <v>32.67175674438477</v>
       </c>
       <c r="J56" t="n">
-        <v>90.14595031738281</v>
+        <v>226.9069213867188</v>
+      </c>
+      <c r="K56" t="n">
+        <v>83.00395202636719</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>49.881475732815</v>
       </c>
-      <c r="G57" t="n">
-        <v>398.3254089355469</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>111.8894882202148</v>
+        <v>274.3365478515625</v>
       </c>
       <c r="I57" t="n">
-        <v>279.3469543457031</v>
+        <v>70.74237823486328</v>
       </c>
       <c r="J57" t="n">
-        <v>185.5706024169922</v>
+        <v>343.2991027832031</v>
+      </c>
+      <c r="K57" t="n">
+        <v>139.0150604248047</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>46.147295090649</v>
       </c>
-      <c r="G58" t="n">
-        <v>640.6416625976562</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>77.16413116455078</v>
+        <v>546.322265625</v>
       </c>
       <c r="I58" t="n">
-        <v>336.8876953125</v>
+        <v>122.1544036865234</v>
       </c>
       <c r="J58" t="n">
-        <v>271.4865112304688</v>
+        <v>458.6163635253906</v>
+      </c>
+      <c r="K58" t="n">
+        <v>210.1212615966797</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>56.70921047332411</v>
       </c>
-      <c r="G59" t="n">
-        <v>132.1955413818359</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>46.29394149780273</v>
+        <v>105.0842132568359</v>
       </c>
       <c r="I59" t="n">
-        <v>37.50864791870117</v>
+        <v>29.92910957336426</v>
       </c>
       <c r="J59" t="n">
-        <v>68.10575103759766</v>
+        <v>35.87956237792969</v>
+      </c>
+      <c r="K59" t="n">
+        <v>66.65797424316406</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>58.23723423416003</v>
       </c>
-      <c r="G60" t="n">
-        <v>140.7771148681641</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>46.79948425292969</v>
+        <v>111.3381271362305</v>
       </c>
       <c r="I60" t="n">
-        <v>38.00272369384766</v>
+        <v>30.43114471435547</v>
       </c>
       <c r="J60" t="n">
-        <v>70.24559783935547</v>
+        <v>36.81745910644531</v>
+      </c>
+      <c r="K60" t="n">
+        <v>73.03119659423828</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>59.34611390594659</v>
       </c>
-      <c r="G61" t="n">
-        <v>148.1641387939453</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>45.36869812011719</v>
+        <v>118.5735549926758</v>
       </c>
       <c r="I61" t="n">
-        <v>52.83022689819336</v>
+        <v>31.13771629333496</v>
       </c>
       <c r="J61" t="n">
-        <v>68.20400238037109</v>
+        <v>42.69039154052734</v>
+      </c>
+      <c r="K61" t="n">
+        <v>74.95159149169922</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>59.33493295870724</v>
       </c>
-      <c r="G62" t="n">
-        <v>157.55322265625</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>44.0197639465332</v>
+        <v>130.9244384765625</v>
       </c>
       <c r="I62" t="n">
-        <v>69.57358551025391</v>
+        <v>30.30545425415039</v>
       </c>
       <c r="J62" t="n">
-        <v>69.73371124267578</v>
+        <v>57.4088020324707</v>
+      </c>
+      <c r="K62" t="n">
+        <v>81.73785400390625</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>58.39353789451046</v>
       </c>
-      <c r="G63" t="n">
-        <v>171.7593383789062</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>43.24796295166016</v>
+        <v>150.1207885742188</v>
       </c>
       <c r="I63" t="n">
-        <v>99.53571319580078</v>
+        <v>30.65069961547852</v>
       </c>
       <c r="J63" t="n">
-        <v>63.43060302734375</v>
+        <v>91.91172790527344</v>
+      </c>
+      <c r="K63" t="n">
+        <v>76.89043426513672</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>57.3323684814925</v>
       </c>
-      <c r="G64" t="n">
-        <v>224.0970611572266</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>50.34781646728516</v>
+        <v>180.4711608886719</v>
       </c>
       <c r="I64" t="n">
-        <v>111.0416793823242</v>
+        <v>33.01676559448242</v>
       </c>
       <c r="J64" t="n">
-        <v>69.72177124023438</v>
+        <v>112.0819396972656</v>
+      </c>
+      <c r="K64" t="n">
+        <v>74.45079040527344</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>54.83283250514894</v>
       </c>
-      <c r="G65" t="n">
-        <v>404.1596984863281</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>111.451416015625</v>
+        <v>265.2236022949219</v>
       </c>
       <c r="I65" t="n">
-        <v>146.3619995117188</v>
+        <v>71.93181610107422</v>
       </c>
       <c r="J65" t="n">
-        <v>112.8942108154297</v>
+        <v>183.5906829833984</v>
+      </c>
+      <c r="K65" t="n">
+        <v>89.79141998291016</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>66.18771861830042</v>
       </c>
-      <c r="G66" t="n">
-        <v>153.5455474853516</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>52.08935165405273</v>
+        <v>113.2207946777344</v>
       </c>
       <c r="I66" t="n">
-        <v>-31.65519523620605</v>
+        <v>32.15187072753906</v>
       </c>
       <c r="J66" t="n">
-        <v>86.78285980224609</v>
+        <v>-60.89590454101562</v>
+      </c>
+      <c r="K66" t="n">
+        <v>101.8964157104492</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>66.85471859160208</v>
       </c>
-      <c r="G67" t="n">
-        <v>161.5299224853516</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>51.47652053833008</v>
+        <v>117.0169296264648</v>
       </c>
       <c r="I67" t="n">
-        <v>-27.7842960357666</v>
+        <v>33.4466438293457</v>
       </c>
       <c r="J67" t="n">
-        <v>86.37662506103516</v>
+        <v>-56.82796096801758</v>
+      </c>
+      <c r="K67" t="n">
+        <v>102.0066909790039</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>66.29608309198557</v>
       </c>
-      <c r="G68" t="n">
-        <v>173.2876434326172</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>45.56964111328125</v>
+        <v>135.664306640625</v>
       </c>
       <c r="I68" t="n">
-        <v>6.418622016906738</v>
+        <v>32.60696792602539</v>
       </c>
       <c r="J68" t="n">
-        <v>83.46956634521484</v>
+        <v>-29.34085273742676</v>
+      </c>
+      <c r="K68" t="n">
+        <v>101.0056457519531</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>65.32452373485688</v>
       </c>
-      <c r="G69" t="n">
-        <v>181.9057159423828</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>43.04217529296875</v>
+        <v>149.5038146972656</v>
       </c>
       <c r="I69" t="n">
-        <v>24.26086235046387</v>
+        <v>31.89145088195801</v>
       </c>
       <c r="J69" t="n">
-        <v>82.58271789550781</v>
+        <v>-1.980745792388916</v>
+      </c>
+      <c r="K69" t="n">
+        <v>100.1312408447266</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>63.37031159981304</v>
       </c>
-      <c r="G70" t="n">
-        <v>221.9746398925781</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>52.08044815063477</v>
+        <v>179.1416320800781</v>
       </c>
       <c r="I70" t="n">
-        <v>63.45592498779297</v>
+        <v>37.18567657470703</v>
       </c>
       <c r="J70" t="n">
-        <v>73.29423522949219</v>
+        <v>46.37662887573242</v>
+      </c>
+      <c r="K70" t="n">
+        <v>87.04459381103516</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_gelu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>137.5429840087891</v>
+        <v>136.7488861083984</v>
       </c>
       <c r="I2" t="n">
-        <v>28.5504322052002</v>
+        <v>26.92931938171387</v>
       </c>
       <c r="J2" t="n">
-        <v>894.3163452148438</v>
+        <v>891.6865844726562</v>
       </c>
       <c r="K2" t="n">
-        <v>61.75479125976562</v>
+        <v>63.62187957763672</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>146.6415557861328</v>
+        <v>144.5339508056641</v>
       </c>
       <c r="I3" t="n">
-        <v>34.36522674560547</v>
+        <v>30.14232063293457</v>
       </c>
       <c r="J3" t="n">
-        <v>898.09228515625</v>
+        <v>897.135009765625</v>
       </c>
       <c r="K3" t="n">
-        <v>61.01033401489258</v>
+        <v>63.78067016601562</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>159.0849151611328</v>
+        <v>157.5900268554688</v>
       </c>
       <c r="I4" t="n">
-        <v>46.83195495605469</v>
+        <v>46.61154174804688</v>
       </c>
       <c r="J4" t="n">
-        <v>896.5662231445312</v>
+        <v>894.8765869140625</v>
       </c>
       <c r="K4" t="n">
-        <v>63.59195327758789</v>
+        <v>66.08126068115234</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>189.7792663574219</v>
+        <v>190.9769287109375</v>
       </c>
       <c r="I5" t="n">
-        <v>79.14157104492188</v>
+        <v>79.70781707763672</v>
       </c>
       <c r="J5" t="n">
-        <v>894.5596923828125</v>
+        <v>893.161376953125</v>
       </c>
       <c r="K5" t="n">
-        <v>67.13202667236328</v>
+        <v>69.80654907226562</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>248.0402069091797</v>
+        <v>251.8875579833984</v>
       </c>
       <c r="I6" t="n">
-        <v>123.4945831298828</v>
+        <v>130.6558837890625</v>
       </c>
       <c r="J6" t="n">
-        <v>890.102783203125</v>
+        <v>888.940185546875</v>
       </c>
       <c r="K6" t="n">
-        <v>69.2738037109375</v>
+        <v>73.54824066162109</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>126.8301849365234</v>
+        <v>125.8972930908203</v>
       </c>
       <c r="I7" t="n">
-        <v>28.06950378417969</v>
+        <v>27.71376037597656</v>
       </c>
       <c r="J7" t="n">
-        <v>933.9768676757812</v>
+        <v>933.030517578125</v>
       </c>
       <c r="K7" t="n">
-        <v>66.35128784179688</v>
+        <v>67.25274658203125</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>132.7181701660156</v>
+        <v>133.4377593994141</v>
       </c>
       <c r="I8" t="n">
-        <v>27.41315078735352</v>
+        <v>27.41636848449707</v>
       </c>
       <c r="J8" t="n">
-        <v>921.9426879882812</v>
+        <v>918.6109619140625</v>
       </c>
       <c r="K8" t="n">
-        <v>65.82774353027344</v>
+        <v>62.92254638671875</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>142.1093292236328</v>
+        <v>143.1895599365234</v>
       </c>
       <c r="I9" t="n">
-        <v>26.67034912109375</v>
+        <v>26.98422050476074</v>
       </c>
       <c r="J9" t="n">
-        <v>916.5711669921875</v>
+        <v>917.4341430664062</v>
       </c>
       <c r="K9" t="n">
-        <v>64.21633911132812</v>
+        <v>62.44306564331055</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>146.3010101318359</v>
+        <v>146.2447509765625</v>
       </c>
       <c r="I10" t="n">
-        <v>28.57904243469238</v>
+        <v>28.72447776794434</v>
       </c>
       <c r="J10" t="n">
-        <v>912.1015625</v>
+        <v>913.0509643554688</v>
       </c>
       <c r="K10" t="n">
-        <v>63.87351989746094</v>
+        <v>66.17272186279297</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>158.4499664306641</v>
+        <v>159.6816711425781</v>
       </c>
       <c r="I11" t="n">
-        <v>41.64152908325195</v>
+        <v>38.96029281616211</v>
       </c>
       <c r="J11" t="n">
-        <v>910.7314453125</v>
+        <v>909.5607299804688</v>
       </c>
       <c r="K11" t="n">
-        <v>66.65408325195312</v>
+        <v>68.09158325195312</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>210.1396179199219</v>
+        <v>209.4741516113281</v>
       </c>
       <c r="I12" t="n">
-        <v>86.64405059814453</v>
+        <v>89.77559661865234</v>
       </c>
       <c r="J12" t="n">
-        <v>905.7783203125</v>
+        <v>905.0349731445312</v>
       </c>
       <c r="K12" t="n">
-        <v>72.34131622314453</v>
+        <v>70.75900268554688</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>344.7891540527344</v>
+        <v>341.5202026367188</v>
       </c>
       <c r="I13" t="n">
-        <v>169.4346771240234</v>
+        <v>165.7658386230469</v>
       </c>
       <c r="J13" t="n">
-        <v>901.8903198242188</v>
+        <v>900.3954467773438</v>
       </c>
       <c r="K13" t="n">
-        <v>72.35018157958984</v>
+        <v>74.54421997070312</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>110.1395568847656</v>
+        <v>110.6897506713867</v>
       </c>
       <c r="I14" t="n">
-        <v>28.36806297302246</v>
+        <v>28.91218185424805</v>
       </c>
       <c r="J14" t="n">
-        <v>724.0924682617188</v>
+        <v>731.0601196289062</v>
       </c>
       <c r="K14" t="n">
-        <v>98.70077514648438</v>
+        <v>96.58496856689453</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>117.412223815918</v>
+        <v>118.497200012207</v>
       </c>
       <c r="I15" t="n">
-        <v>26.55451011657715</v>
+        <v>27.54331207275391</v>
       </c>
       <c r="J15" t="n">
-        <v>970.9754028320312</v>
+        <v>970.6553955078125</v>
       </c>
       <c r="K15" t="n">
-        <v>71.54963684082031</v>
+        <v>72.30190277099609</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>133.6633148193359</v>
+        <v>134.3269195556641</v>
       </c>
       <c r="I16" t="n">
-        <v>27.01044654846191</v>
+        <v>27.24408531188965</v>
       </c>
       <c r="J16" t="n">
-        <v>962.6886596679688</v>
+        <v>961.610107421875</v>
       </c>
       <c r="K16" t="n">
-        <v>73.16721343994141</v>
+        <v>73.83554840087891</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>137.7559051513672</v>
+        <v>138.6239624023438</v>
       </c>
       <c r="I17" t="n">
-        <v>26.44514846801758</v>
+        <v>25.5462760925293</v>
       </c>
       <c r="J17" t="n">
-        <v>972.1585693359375</v>
+        <v>969.8330078125</v>
       </c>
       <c r="K17" t="n">
-        <v>70.51354217529297</v>
+        <v>72.24555969238281</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>147.9731750488281</v>
+        <v>145.8524627685547</v>
       </c>
       <c r="I18" t="n">
-        <v>26.75763320922852</v>
+        <v>26.65690040588379</v>
       </c>
       <c r="J18" t="n">
-        <v>935.419921875</v>
+        <v>937.72216796875</v>
       </c>
       <c r="K18" t="n">
-        <v>74.29557037353516</v>
+        <v>76.14423370361328</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>156.1349945068359</v>
+        <v>155.8742980957031</v>
       </c>
       <c r="I19" t="n">
-        <v>28.30768013000488</v>
+        <v>29.15039825439453</v>
       </c>
       <c r="J19" t="n">
-        <v>921.5785522460938</v>
+        <v>916.8316650390625</v>
       </c>
       <c r="K19" t="n">
-        <v>81.84365081787109</v>
+        <v>85.29389953613281</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>180.0106811523438</v>
+        <v>180.0243988037109</v>
       </c>
       <c r="I20" t="n">
-        <v>45.98453521728516</v>
+        <v>48.49308395385742</v>
       </c>
       <c r="J20" t="n">
-        <v>913.727783203125</v>
+        <v>914.5643920898438</v>
       </c>
       <c r="K20" t="n">
-        <v>86.67146301269531</v>
+        <v>85.03781890869141</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>317.1639099121094</v>
+        <v>323.2923278808594</v>
       </c>
       <c r="I21" t="n">
-        <v>139.9543914794922</v>
+        <v>143.2460327148438</v>
       </c>
       <c r="J21" t="n">
-        <v>907.8710327148438</v>
+        <v>904.0029296875</v>
       </c>
       <c r="K21" t="n">
-        <v>87.62534332275391</v>
+        <v>87.38247680664062</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>577.3599243164062</v>
+        <v>572.64990234375</v>
       </c>
       <c r="I22" t="n">
-        <v>200.2473754882812</v>
+        <v>205.3154754638672</v>
       </c>
       <c r="J22" t="n">
-        <v>893.6334228515625</v>
+        <v>890.3491821289062</v>
       </c>
       <c r="K22" t="n">
-        <v>101.1397171020508</v>
+        <v>105.1692810058594</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>107.5953598022461</v>
+        <v>107.9409408569336</v>
       </c>
       <c r="I23" t="n">
-        <v>28.80802726745605</v>
+        <v>29.25032234191895</v>
       </c>
       <c r="J23" t="n">
-        <v>346.1248779296875</v>
+        <v>342.1792297363281</v>
       </c>
       <c r="K23" t="n">
-        <v>117.5773391723633</v>
+        <v>121.0110397338867</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>111.5146484375</v>
+        <v>110.049560546875</v>
       </c>
       <c r="I24" t="n">
-        <v>29.77785110473633</v>
+        <v>29.59842681884766</v>
       </c>
       <c r="J24" t="n">
-        <v>553.6724243164062</v>
+        <v>557.9332885742188</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0846405029297</v>
+        <v>143.3624572753906</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>122.5353088378906</v>
+        <v>121.0738677978516</v>
       </c>
       <c r="I25" t="n">
-        <v>28.1684455871582</v>
+        <v>27.65849685668945</v>
       </c>
       <c r="J25" t="n">
-        <v>892.5436401367188</v>
+        <v>893.6516723632812</v>
       </c>
       <c r="K25" t="n">
-        <v>93.22998809814453</v>
+        <v>94.45647430419922</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>133.3680114746094</v>
+        <v>131.9462127685547</v>
       </c>
       <c r="I26" t="n">
-        <v>26.93976783752441</v>
+        <v>27.74354553222656</v>
       </c>
       <c r="J26" t="n">
-        <v>985.463134765625</v>
+        <v>983.1901245117188</v>
       </c>
       <c r="K26" t="n">
-        <v>80.08538818359375</v>
+        <v>78.6309814453125</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>145.7396392822266</v>
+        <v>146.2279357910156</v>
       </c>
       <c r="I27" t="n">
-        <v>27.17731285095215</v>
+        <v>26.87143707275391</v>
       </c>
       <c r="J27" t="n">
-        <v>962.6129150390625</v>
+        <v>962.4641723632812</v>
       </c>
       <c r="K27" t="n">
-        <v>73.38426971435547</v>
+        <v>75.40046691894531</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>163.0193481445312</v>
+        <v>162.1204071044922</v>
       </c>
       <c r="I28" t="n">
-        <v>27.79917526245117</v>
+        <v>27.51626586914062</v>
       </c>
       <c r="J28" t="n">
-        <v>929.5697631835938</v>
+        <v>927.9677124023438</v>
       </c>
       <c r="K28" t="n">
-        <v>91.13951873779297</v>
+        <v>87.98068237304688</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>189.5425567626953</v>
+        <v>187.6999206542969</v>
       </c>
       <c r="I29" t="n">
-        <v>38.20209121704102</v>
+        <v>38.21411514282227</v>
       </c>
       <c r="J29" t="n">
-        <v>908.5018920898438</v>
+        <v>906.7601928710938</v>
       </c>
       <c r="K29" t="n">
-        <v>104.9271545410156</v>
+        <v>106.1375579833984</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>329.3472900390625</v>
+        <v>329.2960815429688</v>
       </c>
       <c r="I30" t="n">
-        <v>128.0698394775391</v>
+        <v>129.9432678222656</v>
       </c>
       <c r="J30" t="n">
-        <v>900.8179321289062</v>
+        <v>900.9156494140625</v>
       </c>
       <c r="K30" t="n">
-        <v>111.3096160888672</v>
+        <v>114.8340911865234</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>585.6785888671875</v>
+        <v>585.0864868164062</v>
       </c>
       <c r="I31" t="n">
-        <v>183.8243408203125</v>
+        <v>184.9956512451172</v>
       </c>
       <c r="J31" t="n">
-        <v>874.022216796875</v>
+        <v>873.5396728515625</v>
       </c>
       <c r="K31" t="n">
-        <v>143.9454650878906</v>
+        <v>144.9497375488281</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>105.5268402099609</v>
+        <v>106.781379699707</v>
       </c>
       <c r="I32" t="n">
-        <v>29.61458206176758</v>
+        <v>30.39856719970703</v>
       </c>
       <c r="J32" t="n">
-        <v>167.9669189453125</v>
+        <v>168.2762298583984</v>
       </c>
       <c r="K32" t="n">
-        <v>74.79670715332031</v>
+        <v>75.32649230957031</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>108.4224853515625</v>
+        <v>108.8495025634766</v>
       </c>
       <c r="I33" t="n">
-        <v>29.24589157104492</v>
+        <v>29.17937469482422</v>
       </c>
       <c r="J33" t="n">
-        <v>251.2402801513672</v>
+        <v>253.7964782714844</v>
       </c>
       <c r="K33" t="n">
-        <v>98.5533447265625</v>
+        <v>100.9841232299805</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>114.2875366210938</v>
+        <v>115.5215072631836</v>
       </c>
       <c r="I34" t="n">
-        <v>28.40423774719238</v>
+        <v>28.92098617553711</v>
       </c>
       <c r="J34" t="n">
-        <v>396.2199096679688</v>
+        <v>390.2501220703125</v>
       </c>
       <c r="K34" t="n">
-        <v>140.5288848876953</v>
+        <v>141.5804443359375</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>127.2501678466797</v>
+        <v>127.3393325805664</v>
       </c>
       <c r="I35" t="n">
-        <v>28.18117713928223</v>
+        <v>28.23881912231445</v>
       </c>
       <c r="J35" t="n">
-        <v>508.6352233886719</v>
+        <v>508.9606323242188</v>
       </c>
       <c r="K35" t="n">
-        <v>140.8697204589844</v>
+        <v>138.9816131591797</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>145.7926483154297</v>
+        <v>147.1927185058594</v>
       </c>
       <c r="I36" t="n">
-        <v>27.80523109436035</v>
+        <v>27.6425724029541</v>
       </c>
       <c r="J36" t="n">
-        <v>736.4120483398438</v>
+        <v>741.8426513671875</v>
       </c>
       <c r="K36" t="n">
-        <v>137.1432342529297</v>
+        <v>134.1857299804688</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>163.9685668945312</v>
+        <v>163.9569091796875</v>
       </c>
       <c r="I37" t="n">
-        <v>29.36536598205566</v>
+        <v>27.9606761932373</v>
       </c>
       <c r="J37" t="n">
-        <v>759.9261474609375</v>
+        <v>760.6632690429688</v>
       </c>
       <c r="K37" t="n">
-        <v>132.0574645996094</v>
+        <v>129.673583984375</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>202.2407989501953</v>
+        <v>202.4519195556641</v>
       </c>
       <c r="I38" t="n">
-        <v>37.12222290039062</v>
+        <v>38.58478164672852</v>
       </c>
       <c r="J38" t="n">
-        <v>813.059814453125</v>
+        <v>813.02587890625</v>
       </c>
       <c r="K38" t="n">
-        <v>111.743293762207</v>
+        <v>112.4860000610352</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>323.8775329589844</v>
+        <v>325.4294738769531</v>
       </c>
       <c r="I39" t="n">
-        <v>104.826301574707</v>
+        <v>105.4270401000977</v>
       </c>
       <c r="J39" t="n">
-        <v>827.533203125</v>
+        <v>829.1400756835938</v>
       </c>
       <c r="K39" t="n">
-        <v>139.8016052246094</v>
+        <v>140.9181976318359</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>586.6719970703125</v>
+        <v>589.0994873046875</v>
       </c>
       <c r="I40" t="n">
-        <v>148.5989074707031</v>
+        <v>148.3642883300781</v>
       </c>
       <c r="J40" t="n">
-        <v>804.8690185546875</v>
+        <v>806.7144775390625</v>
       </c>
       <c r="K40" t="n">
-        <v>220.3861389160156</v>
+        <v>215.9644165039062</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>104.9570693969727</v>
+        <v>104.5877380371094</v>
       </c>
       <c r="I41" t="n">
-        <v>31.72517013549805</v>
+        <v>30.22714996337891</v>
       </c>
       <c r="J41" t="n">
-        <v>122.348518371582</v>
+        <v>124.3128128051758</v>
       </c>
       <c r="K41" t="n">
-        <v>53.42819213867188</v>
+        <v>56.90370559692383</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>106.8600616455078</v>
+        <v>106.6455993652344</v>
       </c>
       <c r="I42" t="n">
-        <v>30.23565673828125</v>
+        <v>30.0151309967041</v>
       </c>
       <c r="J42" t="n">
-        <v>150.9960632324219</v>
+        <v>149.0818176269531</v>
       </c>
       <c r="K42" t="n">
-        <v>59.77797317504883</v>
+        <v>61.15143203735352</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>109.1942596435547</v>
+        <v>111.3562927246094</v>
       </c>
       <c r="I43" t="n">
-        <v>29.44835090637207</v>
+        <v>29.25940322875977</v>
       </c>
       <c r="J43" t="n">
-        <v>175.8179321289062</v>
+        <v>177.7680511474609</v>
       </c>
       <c r="K43" t="n">
-        <v>66.71945953369141</v>
+        <v>65.94165802001953</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>124.9117813110352</v>
+        <v>126.0803756713867</v>
       </c>
       <c r="I44" t="n">
-        <v>29.20474624633789</v>
+        <v>28.94301795959473</v>
       </c>
       <c r="J44" t="n">
-        <v>254.7630004882812</v>
+        <v>255.7848510742188</v>
       </c>
       <c r="K44" t="n">
-        <v>90.71967315673828</v>
+        <v>91.43802642822266</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>137.4642486572266</v>
+        <v>137.4759368896484</v>
       </c>
       <c r="I45" t="n">
-        <v>29.07447814941406</v>
+        <v>29.01483726501465</v>
       </c>
       <c r="J45" t="n">
-        <v>297.3296813964844</v>
+        <v>297.1016540527344</v>
       </c>
       <c r="K45" t="n">
-        <v>102.075065612793</v>
+        <v>97.71387481689453</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>158.6920013427734</v>
+        <v>158.1969909667969</v>
       </c>
       <c r="I46" t="n">
-        <v>28.42128372192383</v>
+        <v>29.01443672180176</v>
       </c>
       <c r="J46" t="n">
-        <v>388.0767822265625</v>
+        <v>384.8313293457031</v>
       </c>
       <c r="K46" t="n">
-        <v>115.3744354248047</v>
+        <v>113.1046829223633</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>196.5345611572266</v>
+        <v>197.4363098144531</v>
       </c>
       <c r="I47" t="n">
-        <v>35.35995483398438</v>
+        <v>36.6009521484375</v>
       </c>
       <c r="J47" t="n">
-        <v>502.0817565917969</v>
+        <v>499.8953247070312</v>
       </c>
       <c r="K47" t="n">
-        <v>161.3003540039062</v>
+        <v>163.9065399169922</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>325.6382141113281</v>
+        <v>328.3337707519531</v>
       </c>
       <c r="I48" t="n">
-        <v>88.61933898925781</v>
+        <v>91.67366027832031</v>
       </c>
       <c r="J48" t="n">
-        <v>633.1996459960938</v>
+        <v>636.036376953125</v>
       </c>
       <c r="K48" t="n">
-        <v>194.1738128662109</v>
+        <v>193.1866149902344</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>540.7281494140625</v>
+        <v>539.696533203125</v>
       </c>
       <c r="I49" t="n">
-        <v>135.9797821044922</v>
+        <v>134.0965728759766</v>
       </c>
       <c r="J49" t="n">
-        <v>692.381591796875</v>
+        <v>691.9151000976562</v>
       </c>
       <c r="K49" t="n">
-        <v>222.8573455810547</v>
+        <v>227.0418853759766</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>106.6701126098633</v>
+        <v>103.983024597168</v>
       </c>
       <c r="I50" t="n">
-        <v>31.1513500213623</v>
+        <v>30.45812797546387</v>
       </c>
       <c r="J50" t="n">
-        <v>82.04201507568359</v>
+        <v>85.32443237304688</v>
       </c>
       <c r="K50" t="n">
-        <v>54.03275680541992</v>
+        <v>55.08418273925781</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>105.5780487060547</v>
+        <v>107.9585189819336</v>
       </c>
       <c r="I51" t="n">
-        <v>30.35260009765625</v>
+        <v>29.94609260559082</v>
       </c>
       <c r="J51" t="n">
-        <v>96.8197021484375</v>
+        <v>100.7136077880859</v>
       </c>
       <c r="K51" t="n">
-        <v>53.05987167358398</v>
+        <v>56.82115936279297</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>109.2822418212891</v>
+        <v>109.0729598999023</v>
       </c>
       <c r="I52" t="n">
-        <v>30.3582935333252</v>
+        <v>29.85213470458984</v>
       </c>
       <c r="J52" t="n">
-        <v>106.7623062133789</v>
+        <v>104.6217269897461</v>
       </c>
       <c r="K52" t="n">
-        <v>57.43117141723633</v>
+        <v>55.62593841552734</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>119.9024124145508</v>
+        <v>122.0949859619141</v>
       </c>
       <c r="I53" t="n">
-        <v>29.55035591125488</v>
+        <v>29.15567207336426</v>
       </c>
       <c r="J53" t="n">
-        <v>128.4068908691406</v>
+        <v>124.8583450317383</v>
       </c>
       <c r="K53" t="n">
-        <v>65.30496978759766</v>
+        <v>60.44941711425781</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>136.8148193359375</v>
+        <v>136.8506011962891</v>
       </c>
       <c r="I54" t="n">
-        <v>28.56464767456055</v>
+        <v>27.85528182983398</v>
       </c>
       <c r="J54" t="n">
-        <v>148.330078125</v>
+        <v>148.334228515625</v>
       </c>
       <c r="K54" t="n">
-        <v>67.09089660644531</v>
+        <v>68.56675720214844</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>156.7666320800781</v>
+        <v>158.0681915283203</v>
       </c>
       <c r="I55" t="n">
-        <v>28.41353988647461</v>
+        <v>27.82526969909668</v>
       </c>
       <c r="J55" t="n">
-        <v>194.9142608642578</v>
+        <v>195.9924926757812</v>
       </c>
       <c r="K55" t="n">
-        <v>71.66378021240234</v>
+        <v>70.66410827636719</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>187.3132934570312</v>
+        <v>188.2212982177734</v>
       </c>
       <c r="I56" t="n">
-        <v>32.67175674438477</v>
+        <v>33.99252700805664</v>
       </c>
       <c r="J56" t="n">
-        <v>226.9069213867188</v>
+        <v>225.3201293945312</v>
       </c>
       <c r="K56" t="n">
-        <v>83.00395202636719</v>
+        <v>78.58394622802734</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>274.3365478515625</v>
+        <v>274.6961364746094</v>
       </c>
       <c r="I57" t="n">
-        <v>70.74237823486328</v>
+        <v>72.17510986328125</v>
       </c>
       <c r="J57" t="n">
-        <v>343.2991027832031</v>
+        <v>340.3363952636719</v>
       </c>
       <c r="K57" t="n">
-        <v>139.0150604248047</v>
+        <v>138.5402526855469</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>546.322265625</v>
+        <v>545.0119018554688</v>
       </c>
       <c r="I58" t="n">
-        <v>122.1544036865234</v>
+        <v>119.6214370727539</v>
       </c>
       <c r="J58" t="n">
-        <v>458.6163635253906</v>
+        <v>453.1405639648438</v>
       </c>
       <c r="K58" t="n">
-        <v>210.1212615966797</v>
+        <v>203.2917175292969</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>105.0842132568359</v>
+        <v>107.8534240722656</v>
       </c>
       <c r="I59" t="n">
-        <v>29.92910957336426</v>
+        <v>30.49723815917969</v>
       </c>
       <c r="J59" t="n">
-        <v>35.87956237792969</v>
+        <v>37.9773063659668</v>
       </c>
       <c r="K59" t="n">
-        <v>66.65797424316406</v>
+        <v>68.59326934814453</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>111.3381271362305</v>
+        <v>111.6976165771484</v>
       </c>
       <c r="I60" t="n">
-        <v>30.43114471435547</v>
+        <v>31.016845703125</v>
       </c>
       <c r="J60" t="n">
-        <v>36.81745910644531</v>
+        <v>37.1789665222168</v>
       </c>
       <c r="K60" t="n">
-        <v>73.03119659423828</v>
+        <v>70.78494262695312</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>118.5735549926758</v>
+        <v>118.8024597167969</v>
       </c>
       <c r="I61" t="n">
-        <v>31.13771629333496</v>
+        <v>31.28554344177246</v>
       </c>
       <c r="J61" t="n">
-        <v>42.69039154052734</v>
+        <v>45.06106948852539</v>
       </c>
       <c r="K61" t="n">
-        <v>74.95159149169922</v>
+        <v>76.48380279541016</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>130.9244384765625</v>
+        <v>132.1670379638672</v>
       </c>
       <c r="I62" t="n">
-        <v>30.30545425415039</v>
+        <v>29.33124732971191</v>
       </c>
       <c r="J62" t="n">
-        <v>57.4088020324707</v>
+        <v>55.28539657592773</v>
       </c>
       <c r="K62" t="n">
-        <v>81.73785400390625</v>
+        <v>81.43121337890625</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>150.1207885742188</v>
+        <v>150.3063049316406</v>
       </c>
       <c r="I63" t="n">
-        <v>30.65069961547852</v>
+        <v>28.99275588989258</v>
       </c>
       <c r="J63" t="n">
-        <v>91.91172790527344</v>
+        <v>85.61823272705078</v>
       </c>
       <c r="K63" t="n">
-        <v>76.89043426513672</v>
+        <v>81.77945709228516</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>180.4711608886719</v>
+        <v>183.2800445556641</v>
       </c>
       <c r="I64" t="n">
-        <v>33.01676559448242</v>
+        <v>33.92273712158203</v>
       </c>
       <c r="J64" t="n">
-        <v>112.0819396972656</v>
+        <v>113.1196594238281</v>
       </c>
       <c r="K64" t="n">
-        <v>74.45079040527344</v>
+        <v>74.00486755371094</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>265.2236022949219</v>
+        <v>266.8333740234375</v>
       </c>
       <c r="I65" t="n">
-        <v>71.93181610107422</v>
+        <v>72.03237915039062</v>
       </c>
       <c r="J65" t="n">
-        <v>183.5906829833984</v>
+        <v>183.1658630371094</v>
       </c>
       <c r="K65" t="n">
-        <v>89.79141998291016</v>
+        <v>93.88407135009766</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>113.2207946777344</v>
+        <v>112.9499740600586</v>
       </c>
       <c r="I66" t="n">
-        <v>32.15187072753906</v>
+        <v>33.61459350585938</v>
       </c>
       <c r="J66" t="n">
-        <v>-60.89590454101562</v>
+        <v>-59.84055328369141</v>
       </c>
       <c r="K66" t="n">
-        <v>101.8964157104492</v>
+        <v>102.7309341430664</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>117.0169296264648</v>
+        <v>117.9118194580078</v>
       </c>
       <c r="I67" t="n">
-        <v>33.4466438293457</v>
+        <v>33.85646057128906</v>
       </c>
       <c r="J67" t="n">
-        <v>-56.82796096801758</v>
+        <v>-57.28501129150391</v>
       </c>
       <c r="K67" t="n">
-        <v>102.0066909790039</v>
+        <v>100.5708999633789</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>135.664306640625</v>
+        <v>134.9378814697266</v>
       </c>
       <c r="I68" t="n">
-        <v>32.60696792602539</v>
+        <v>31.67827606201172</v>
       </c>
       <c r="J68" t="n">
-        <v>-29.34085273742676</v>
+        <v>-26.89417839050293</v>
       </c>
       <c r="K68" t="n">
-        <v>101.0056457519531</v>
+        <v>97.06682586669922</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>149.5038146972656</v>
+        <v>149.1908721923828</v>
       </c>
       <c r="I69" t="n">
-        <v>31.89145088195801</v>
+        <v>32.88265228271484</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.980745792388916</v>
+        <v>-2.34116792678833</v>
       </c>
       <c r="K69" t="n">
-        <v>100.1312408447266</v>
+        <v>97.17629241943359</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>179.1416320800781</v>
+        <v>181.3480987548828</v>
       </c>
       <c r="I70" t="n">
-        <v>37.18567657470703</v>
+        <v>36.29533767700195</v>
       </c>
       <c r="J70" t="n">
-        <v>46.37662887573242</v>
+        <v>47.93287658691406</v>
       </c>
       <c r="K70" t="n">
-        <v>87.04459381103516</v>
+        <v>81.05509185791016</v>
       </c>
     </row>
   </sheetData>
